--- a/src/main/resources/data/bulkUploadTemplate.xlsx
+++ b/src/main/resources/data/bulkUploadTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuatate/Documents/GitHub/acft-manager/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C23DDA-3CB9-F247-8783-5466B5C03500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3ECA61-F1EE-8D40-AF51-DD74166D3441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{A419EAD3-5F84-3B4D-A11A-965F1F426D05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Last Name</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>DO NOT DELETE THIS ROW</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +85,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,12 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526DB1B8-CC37-624A-A8C3-0F6BD331E4F7}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,9 +443,10 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +459,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -459,6 +475,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
